--- a/experiment_plans/leuk_ex_plan.xlsx
+++ b/experiment_plans/leuk_ex_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LR\WLR\Documents-\WangLR\University\Y2S1\URECA\Code\doppelgangerSpotting\experiment_plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2AB94D-C2E6-4E85-ADA5-D663948CB76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C696E220-7D60-49D0-BE83-E17F49E3C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="bal_doppel_samples_G" sheetId="7" r:id="rId7"/>
     <sheet name="Additional doppel samples" sheetId="8" r:id="rId8"/>
     <sheet name="Experiment_Plan" sheetId="9" r:id="rId9"/>
-    <sheet name="Experiment_Plan_Additional" sheetId="10" r:id="rId10"/>
+    <sheet name="Test_Additional" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -472,10 +472,10 @@
     <t>ALL_19_G.train</t>
   </si>
   <si>
-    <t>Pos_Con_1.train</t>
-  </si>
-  <si>
-    <t>Pos_Con_1.valid</t>
+    <t>Pos_Con_2.train</t>
+  </si>
+  <si>
+    <t>Pos_Con_2.valid</t>
   </si>
 </sst>
 </file>
@@ -2177,20 +2177,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F39E2AB-AAE6-45A9-B661-96866AD72514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E43DB49-BE07-4ABC-9521-4D353289F008}">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.04296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.75">
@@ -2201,16 +2200,16 @@
         <v>134</v>
       </c>
       <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" t="s">
-        <v>145</v>
       </c>
       <c r="G1" t="s">
         <v>147</v>
@@ -2230,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -2261,14 +2260,14 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
@@ -4016,7 +4015,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4137,13 +4136,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>7</v>
@@ -4169,13 +4168,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>8</v>
@@ -4207,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>9</v>
@@ -4239,7 +4238,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -4406,6 +4405,7 @@
       <c r="G13" t="s">
         <v>16</v>
       </c>
+      <c r="H13" s="3"/>
       <c r="I13" t="s">
         <v>16</v>
       </c>
@@ -4423,6 +4423,7 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
+      <c r="H14" s="3"/>
       <c r="I14" t="s">
         <v>17</v>
       </c>
@@ -4440,6 +4441,7 @@
       <c r="G15" t="s">
         <v>18</v>
       </c>
+      <c r="H15" s="3"/>
       <c r="I15" t="s">
         <v>18</v>
       </c>
@@ -4457,6 +4459,7 @@
       <c r="G16" t="s">
         <v>19</v>
       </c>
+      <c r="H16" s="3"/>
       <c r="I16" t="s">
         <v>19</v>
       </c>
@@ -4474,6 +4477,7 @@
       <c r="G17" t="s">
         <v>20</v>
       </c>
+      <c r="H17" s="3"/>
       <c r="I17" t="s">
         <v>20</v>
       </c>
